--- a/ZEMP/Documents/LIVEBOARD CHART.xlsx
+++ b/ZEMP/Documents/LIVEBOARD CHART.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giangnh\Documents\GitHub\workprojects\ZEMP\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="27" windowWidth="14590" windowHeight="9346"/>
+    <workbookView xWindow="435" yWindow="30" windowWidth="14595" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="20">
   <si>
     <t>900P01</t>
   </si>
@@ -62,11 +67,26 @@
   <si>
     <t>Red</t>
   </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>kehoach</t>
+  </si>
+  <si>
+    <t>thuchien</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>dbchat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,12 +145,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -167,6 +190,13 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -174,6 +204,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -204,6 +239,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60ED-47C2-9437-3EA4D1E8E682}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -222,6 +262,13 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -249,6 +296,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -279,6 +331,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60ED-47C2-9437-3EA4D1E8E682}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -299,6 +356,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -337,7 +395,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -372,7 +429,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -416,9 +473,21 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-760B-43A6-BE41-A582BE20F229}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -437,6 +506,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -467,6 +539,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-760B-43A6-BE41-A582BE20F229}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -498,7 +575,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -538,9 +615,21 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-41DB-4FDE-9BEA-4678463E4401}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -549,6 +638,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -579,6 +671,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41DB-4FDE-9BEA-4678463E4401}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -610,7 +707,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -644,6 +741,13 @@
           </c:tx>
           <c:dLbls>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -651,6 +755,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -687,6 +794,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3E5-45D9-B3CC-CB7847BEBC66}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -723,7 +835,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -757,6 +869,13 @@
           </c:tx>
           <c:dLbls>
             <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -765,6 +884,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -801,6 +923,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9694-47BE-89C1-4D030E58F057}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -832,7 +959,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -868,6 +995,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -875,6 +1009,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -899,6 +1038,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B425-43AE-828F-F896D67D14AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -916,6 +1060,13 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -923,6 +1074,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -947,6 +1103,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B425-43AE-828F-F896D67D14AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -967,6 +1128,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -996,7 +1158,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1016,6 +1177,893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kehoach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$51:$G$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dbchat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70BE-489A-BE81-EDBB982EEA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thuchien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$51:$G$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dbchat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70BE-489A-BE81-EDBB982EEA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="922648223"/>
+        <c:axId val="827249215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="922648223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827249215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="827249215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922648223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1033,7 +2081,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1063,7 +2117,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1093,7 +2153,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1125,7 +2191,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1157,7 +2229,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1189,7 +2267,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1201,6 +2285,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350921</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501315</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>48127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46D9853-E116-403D-8F2E-6ACB4D070897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1252,7 +2372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1285,9 +2405,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1320,6 +2457,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1496,16 +2650,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="5" max="13" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="5" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -4277,6 +5431,80 @@
       </c>
       <c r="M32">
         <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S51" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51">
+        <v>213</v>
+      </c>
+      <c r="U51">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>213</v>
+      </c>
+      <c r="F52">
+        <v>1234</v>
+      </c>
+      <c r="G52">
+        <v>1234</v>
+      </c>
+      <c r="S52" t="s">
+        <v>18</v>
+      </c>
+      <c r="T52">
+        <v>1234</v>
+      </c>
+      <c r="U52">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>123</v>
+      </c>
+      <c r="F53">
+        <v>1234</v>
+      </c>
+      <c r="G53">
+        <v>1231</v>
+      </c>
+      <c r="S53" t="s">
+        <v>19</v>
+      </c>
+      <c r="T53">
+        <v>1234</v>
+      </c>
+      <c r="U53">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +5520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4304,7 +5532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZEMP/Documents/LIVEBOARD CHART.xlsx
+++ b/ZEMP/Documents/LIVEBOARD CHART.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giangnh\Documents\GitHub\workprojects\ZEMP\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="435" yWindow="30" windowWidth="14595" windowHeight="9345"/>
+    <workbookView xWindow="435" yWindow="27" windowWidth="14590" windowHeight="9346"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="42">
   <si>
     <t>900P01</t>
   </si>
@@ -82,11 +77,80 @@
   <si>
     <t>dbchat</t>
   </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>ThucHien-May</t>
+  </si>
+  <si>
+    <t>KeHoach-May</t>
+  </si>
+  <si>
+    <t>KeHoach-GO</t>
+  </si>
+  <si>
+    <t>ThucHien-GO</t>
+  </si>
+  <si>
+    <t>KeHoach-CHAT</t>
+  </si>
+  <si>
+    <t>ThucHien-CHAT</t>
+  </si>
+  <si>
+    <t>Xanh</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Vang</t>
+  </si>
+  <si>
+    <t>pt_vtkh-May</t>
+  </si>
+  <si>
+    <t>pt_tskh-MAY</t>
+  </si>
+  <si>
+    <t>pt_nckh-MAY</t>
+  </si>
+  <si>
+    <t>pt_vtth-May</t>
+  </si>
+  <si>
+    <t>pt_tsth-MAY</t>
+  </si>
+  <si>
+    <t>pt_ncth-MAY</t>
+  </si>
+  <si>
+    <t>TongSoLD</t>
+  </si>
+  <si>
+    <t>TyLeVang</t>
+  </si>
+  <si>
+    <t>NS_MAY</t>
+  </si>
+  <si>
+    <t>NSTTMAY</t>
+  </si>
+  <si>
+    <t>NS_GO</t>
+  </si>
+  <si>
+    <t>NSTT_GO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -135,6 +199,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +219,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -204,7 +270,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -239,7 +305,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60ED-47C2-9437-3EA4D1E8E682}"/>
             </c:ext>
@@ -296,7 +362,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -331,7 +397,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-60ED-47C2-9437-3EA4D1E8E682}"/>
             </c:ext>
@@ -346,11 +412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146995072"/>
-        <c:axId val="146996608"/>
+        <c:axId val="118403840"/>
+        <c:axId val="118405376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146995072"/>
+        <c:axId val="118403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146996608"/>
+        <c:crossAx val="118405376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -368,7 +434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146996608"/>
+        <c:axId val="118405376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146995072"/>
+        <c:crossAx val="118403840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -395,6 +461,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -428,8 +495,1068 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_vtkh-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$101:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_tskh-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$101:$M$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_nckh-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$101:$N$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_vtth-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$101:$O$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_tsth-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$101:$P$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_ncth-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$101:$Q$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171809024"/>
+        <c:axId val="173162496"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="171809024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173162496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="173162496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171809024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TongSoLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$101:$R$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="173053056"/>
+        <c:axId val="173054592"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TyLeVang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$101:$S$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164863360"/>
+        <c:axId val="164860288"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="173053056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173054592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="173054592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173053056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="164860288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164863360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="164863360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164860288"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NSTTMAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$101:$U$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NSTT_GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$101:$W$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="175613824"/>
+        <c:axId val="175615360"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NS_MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$101:$T$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NS_GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$101:$V$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="196031232"/>
+        <c:axId val="194266624"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="175613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175615360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="175615360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175613824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194266624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196031232"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="196031232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194266624"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -473,7 +1600,7 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-760B-43A6-BE41-A582BE20F229}"/>
               </c:ext>
@@ -506,7 +1633,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -539,7 +1666,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-760B-43A6-BE41-A582BE20F229}"/>
             </c:ext>
@@ -575,7 +1702,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -615,7 +1742,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-41DB-4FDE-9BEA-4678463E4401}"/>
               </c:ext>
@@ -638,7 +1765,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -671,7 +1798,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-41DB-4FDE-9BEA-4678463E4401}"/>
             </c:ext>
@@ -707,7 +1834,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -755,7 +1882,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -794,7 +1921,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C3E5-45D9-B3CC-CB7847BEBC66}"/>
             </c:ext>
@@ -835,7 +1962,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -884,7 +2011,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -923,7 +2050,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9694-47BE-89C1-4D030E58F057}"/>
             </c:ext>
@@ -959,7 +2086,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1009,7 +2136,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1038,7 +2165,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B425-43AE-828F-F896D67D14AB}"/>
             </c:ext>
@@ -1074,7 +2201,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1103,7 +2230,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B425-43AE-828F-F896D67D14AB}"/>
             </c:ext>
@@ -1118,11 +2245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254191104"/>
-        <c:axId val="254192640"/>
+        <c:axId val="122430976"/>
+        <c:axId val="122432512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254191104"/>
+        <c:axId val="122430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +2259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254192640"/>
+        <c:crossAx val="122432512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254192640"/>
+        <c:axId val="122432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,13 +2278,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254191104"/>
+        <c:crossAx val="122430976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1178,7 +2306,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1257,7 +2385,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-70BE-489A-BE81-EDBB982EEA8A}"/>
             </c:ext>
@@ -1322,7 +2450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-70BE-489A-BE81-EDBB982EEA8A}"/>
             </c:ext>
@@ -1338,11 +2466,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="922648223"/>
-        <c:axId val="827249215"/>
+        <c:axId val="122478976"/>
+        <c:axId val="122480512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="922648223"/>
+        <c:axId val="122478976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +2513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="827249215"/>
+        <c:crossAx val="122480512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +2521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="827249215"/>
+        <c:axId val="122480512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +2572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922648223"/>
+        <c:crossAx val="122478976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1458,6 +2586,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1516,6 +2645,751 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KeHoach-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$101:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ThucHien-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$101:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KeHoach-GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$101:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ThucHien-GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$101:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KeHoach-CHAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$101:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ThucHien-CHAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$101:$H$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="72346240"/>
+        <c:axId val="70914432"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="72346240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70914432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="70914432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72346240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$101:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Do</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$101:$J$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$101:$K$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="173625728"/>
+        <c:axId val="173627264"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="173625728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173627264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="173627264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173625728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2084,7 +3958,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +3994,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +4030,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +4068,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +4106,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +4144,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +4182,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46D9853-E116-403D-8F2E-6ACB4D070897}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A46D9853-E116-403D-8F2E-6ACB4D070897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,6 +4195,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63564</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>24647</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>36774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517585</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53831</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>141719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103517</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>163901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319177</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336431</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>110911</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2372,7 +4396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2405,26 +4429,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2457,23 +4464,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2650,16 +4640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="13" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -5505,6 +7497,349 @@
       </c>
       <c r="U53">
         <v>1231</v>
+      </c>
+    </row>
+    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="U61" s="5"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" t="s">
+        <v>29</v>
+      </c>
+      <c r="L100" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P100" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>35</v>
+      </c>
+      <c r="R100" t="s">
+        <v>36</v>
+      </c>
+      <c r="S100" t="s">
+        <v>37</v>
+      </c>
+      <c r="T100" t="s">
+        <v>38</v>
+      </c>
+      <c r="U100" t="s">
+        <v>39</v>
+      </c>
+      <c r="V100" t="s">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C101">
+        <v>13500</v>
+      </c>
+      <c r="D101">
+        <v>14564</v>
+      </c>
+      <c r="E101">
+        <v>15000</v>
+      </c>
+      <c r="F101">
+        <v>14789</v>
+      </c>
+      <c r="G101">
+        <v>12300</v>
+      </c>
+      <c r="H101">
+        <v>11896</v>
+      </c>
+      <c r="I101">
+        <v>15</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>35</v>
+      </c>
+      <c r="M101">
+        <v>15</v>
+      </c>
+      <c r="N101">
+        <v>50</v>
+      </c>
+      <c r="O101">
+        <v>32</v>
+      </c>
+      <c r="P101">
+        <v>17</v>
+      </c>
+      <c r="Q101">
+        <v>51</v>
+      </c>
+      <c r="R101">
+        <v>2355</v>
+      </c>
+      <c r="S101">
+        <v>11</v>
+      </c>
+      <c r="T101">
+        <v>25</v>
+      </c>
+      <c r="U101">
+        <v>689</v>
+      </c>
+      <c r="V101">
+        <v>10</v>
+      </c>
+      <c r="W101">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C102">
+        <v>13500</v>
+      </c>
+      <c r="D102">
+        <v>12589</v>
+      </c>
+      <c r="E102">
+        <v>15000</v>
+      </c>
+      <c r="F102">
+        <v>15698</v>
+      </c>
+      <c r="G102">
+        <v>12300</v>
+      </c>
+      <c r="H102">
+        <v>14563</v>
+      </c>
+      <c r="I102">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>23</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+      <c r="L102">
+        <v>35</v>
+      </c>
+      <c r="M102">
+        <v>15</v>
+      </c>
+      <c r="N102">
+        <v>50</v>
+      </c>
+      <c r="O102">
+        <v>33</v>
+      </c>
+      <c r="P102">
+        <v>17</v>
+      </c>
+      <c r="Q102">
+        <v>50</v>
+      </c>
+      <c r="R102">
+        <v>2450</v>
+      </c>
+      <c r="S102">
+        <v>12</v>
+      </c>
+      <c r="T102">
+        <v>24.2</v>
+      </c>
+      <c r="U102">
+        <v>658</v>
+      </c>
+      <c r="V102">
+        <v>11.5</v>
+      </c>
+      <c r="W102">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C103">
+        <v>13500</v>
+      </c>
+      <c r="D103">
+        <v>11589</v>
+      </c>
+      <c r="E103">
+        <v>15000</v>
+      </c>
+      <c r="F103">
+        <v>14635</v>
+      </c>
+      <c r="G103">
+        <v>12300</v>
+      </c>
+      <c r="H103">
+        <v>13578</v>
+      </c>
+      <c r="I103">
+        <v>14</v>
+      </c>
+      <c r="J103">
+        <v>16</v>
+      </c>
+      <c r="K103">
+        <v>9</v>
+      </c>
+      <c r="L103">
+        <v>35</v>
+      </c>
+      <c r="M103">
+        <v>15</v>
+      </c>
+      <c r="N103">
+        <v>50</v>
+      </c>
+      <c r="O103">
+        <v>34</v>
+      </c>
+      <c r="P103">
+        <v>13</v>
+      </c>
+      <c r="Q103">
+        <v>53</v>
+      </c>
+      <c r="R103">
+        <v>2320</v>
+      </c>
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="T103">
+        <v>23</v>
+      </c>
+      <c r="U103">
+        <v>636</v>
+      </c>
+      <c r="V103">
+        <v>12.6</v>
+      </c>
+      <c r="W103">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C104">
+        <v>13500</v>
+      </c>
+      <c r="D104">
+        <v>14578</v>
+      </c>
+      <c r="E104">
+        <v>15000</v>
+      </c>
+      <c r="F104">
+        <v>16589</v>
+      </c>
+      <c r="G104">
+        <v>12300</v>
+      </c>
+      <c r="H104">
+        <v>14523</v>
+      </c>
+      <c r="I104">
+        <v>25</v>
+      </c>
+      <c r="J104">
+        <v>15</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+      <c r="L104">
+        <v>35</v>
+      </c>
+      <c r="M104">
+        <v>15</v>
+      </c>
+      <c r="N104">
+        <v>50</v>
+      </c>
+      <c r="O104">
+        <v>30</v>
+      </c>
+      <c r="P104">
+        <v>10</v>
+      </c>
+      <c r="Q104">
+        <v>60</v>
+      </c>
+      <c r="R104">
+        <v>2189</v>
+      </c>
+      <c r="S104">
+        <v>21</v>
+      </c>
+      <c r="T104">
+        <v>26</v>
+      </c>
+      <c r="U104">
+        <v>718</v>
+      </c>
+      <c r="V104">
+        <v>10.6</v>
+      </c>
+      <c r="W104">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -5520,7 +7855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5532,7 +7867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZEMP/Documents/LIVEBOARD CHART.xlsx
+++ b/ZEMP/Documents/LIVEBOARD CHART.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="47">
   <si>
     <t>900P01</t>
   </si>
@@ -143,13 +143,28 @@
   <si>
     <t>NSTT_GO</t>
   </si>
+  <si>
+    <t xml:space="preserve">  ngày </t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Thực Hiện</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,7 +215,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,11 +427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118403840"/>
-        <c:axId val="118405376"/>
+        <c:axId val="146017280"/>
+        <c:axId val="146035456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118403840"/>
+        <c:axId val="146017280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118405376"/>
+        <c:crossAx val="146035456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -434,7 +449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118405376"/>
+        <c:axId val="146035456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118403840"/>
+        <c:crossAx val="146017280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -461,7 +476,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -873,11 +887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171809024"/>
-        <c:axId val="173162496"/>
+        <c:axId val="147292160"/>
+        <c:axId val="147293696"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="171809024"/>
+        <c:axId val="147292160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,14 +901,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173162496"/>
+        <c:crossAx val="147293696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173162496"/>
+        <c:axId val="147293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171809024"/>
+        <c:crossAx val="147292160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1024,8 +1038,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="173053056"/>
-        <c:axId val="173054592"/>
+        <c:axId val="146944384"/>
+        <c:axId val="146945920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1107,11 +1121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164863360"/>
-        <c:axId val="164860288"/>
+        <c:axId val="146949248"/>
+        <c:axId val="146947456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="173053056"/>
+        <c:axId val="146944384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,14 +1135,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173054592"/>
+        <c:crossAx val="146945920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173054592"/>
+        <c:axId val="146945920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,12 +1153,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173053056"/>
+        <c:crossAx val="146944384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164860288"/>
+        <c:axId val="146947456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164863360"/>
+        <c:crossAx val="146949248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="164863360"/>
+        <c:axId val="146949248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1183,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164860288"/>
+        <c:crossAx val="146947456"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1338,8 +1353,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175613824"/>
-        <c:axId val="175615360"/>
+        <c:axId val="146985344"/>
+        <c:axId val="146986880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1470,11 +1485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196031232"/>
-        <c:axId val="194266624"/>
+        <c:axId val="146990208"/>
+        <c:axId val="146988416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="175613824"/>
+        <c:axId val="146985344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,14 +1499,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175615360"/>
+        <c:crossAx val="146986880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175615360"/>
+        <c:axId val="146986880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,12 +1517,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175613824"/>
+        <c:crossAx val="146985344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194266624"/>
+        <c:axId val="146988416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1532,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196031232"/>
+        <c:crossAx val="146990208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196031232"/>
+        <c:axId val="146990208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1547,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194266624"/>
+        <c:crossAx val="146988416"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2245,11 +2261,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122430976"/>
-        <c:axId val="122432512"/>
+        <c:axId val="146509824"/>
+        <c:axId val="146511360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122430976"/>
+        <c:axId val="146509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122432512"/>
+        <c:crossAx val="146511360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122432512"/>
+        <c:axId val="146511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,14 +2294,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122430976"/>
+        <c:crossAx val="146509824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2466,11 +2481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="122478976"/>
-        <c:axId val="122480512"/>
+        <c:axId val="147139200"/>
+        <c:axId val="147149184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122478976"/>
+        <c:axId val="147139200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122480512"/>
+        <c:crossAx val="147149184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2521,7 +2536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122480512"/>
+        <c:axId val="147149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,7 +2587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122478976"/>
+        <c:crossAx val="147139200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3085,11 +3100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="72346240"/>
-        <c:axId val="70914432"/>
+        <c:axId val="147195776"/>
+        <c:axId val="147197312"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="72346240"/>
+        <c:axId val="147195776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,14 +3114,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70914432"/>
+        <c:crossAx val="147197312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70914432"/>
+        <c:axId val="147197312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72346240"/>
+        <c:crossAx val="147195776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3344,11 +3359,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="173625728"/>
-        <c:axId val="173627264"/>
+        <c:axId val="147212928"/>
+        <c:axId val="147239296"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="173625728"/>
+        <c:axId val="147212928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,14 +3373,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173627264"/>
+        <c:crossAx val="147239296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173627264"/>
+        <c:axId val="147239296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +3391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173625728"/>
+        <c:crossAx val="147212928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3958,7 +3973,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +4009,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4045,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4068,7 +4083,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4121,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4159,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4182,7 +4197,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A46D9853-E116-403D-8F2E-6ACB4D070897}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46D9853-E116-403D-8F2E-6ACB4D070897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7840,6 +7855,116 @@
       </c>
       <c r="W104">
         <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ZEMP/Documents/LIVEBOARD CHART.xlsx
+++ b/ZEMP/Documents/LIVEBOARD CHART.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="27" windowWidth="14590" windowHeight="9346"/>
+    <workbookView xWindow="435" yWindow="27" windowWidth="14590" windowHeight="9346" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="49">
   <si>
     <t>900P01</t>
   </si>
@@ -158,6 +159,12 @@
   <si>
     <t>Thực Hiện</t>
   </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
 </sst>
 </file>
 
@@ -1571,6 +1578,1378 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SMAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$G$30:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Kế hoạch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thực hiện</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60ED-47C2-9437-3EA4D1E8E682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$G$30:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Kế hoạch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thực hiện</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$32:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60ED-47C2-9437-3EA4D1E8E682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="51204864"/>
+        <c:axId val="51206400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51204864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51206400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51206400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51204864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SMAY</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-760B-43A6-BE41-A582BE20F229}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$I$30:$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SLDiLam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SL Nghi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$I$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-760B-43A6-BE41-A582BE20F229}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-41DB-4FDE-9BEA-4678463E4401}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$I$30:$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SLDiLam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SL Nghi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$I$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41DB-4FDE-9BEA-4678463E4401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SMAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$L$30:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yellow</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$L$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3E5-45D9-B3CC-CB7847BEBC66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$L$30:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yellow</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$L$32:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9694-47BE-89C1-4D030E58F057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SMAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$K$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NangSuat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B425-43AE-828F-F896D67D14AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$K$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NangSuat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B425-43AE-828F-F896D67D14AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="87604608"/>
+        <c:axId val="87651456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87604608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87651456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87651456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87604608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kehoach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$51:$H$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dbchat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$52:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70BE-489A-BE81-EDBB982EEA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thuchien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$51:$H$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dbchat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$53:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70BE-489A-BE81-EDBB982EEA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="87644416"/>
+        <c:axId val="87646208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87644416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87646208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87646208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87644416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1709,6 +3088,2184 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KeHoach-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$101:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ThucHien-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$101:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KeHoach-GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$101:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$G$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ThucHien-GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$101:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$H$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KeHoach-CHAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$101:$H$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$I$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ThucHien-CHAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$I$101:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="88070016"/>
+        <c:axId val="88071552"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="88070016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88071552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="88071552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88070016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$J$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$J$101:$J$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$K$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Do</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$K$101:$K$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$L$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$L$101:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="88040192"/>
+        <c:axId val="88041728"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="88040192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88041728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="88041728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88040192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_vtkh-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$101:$M$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_tskh-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$N$101:$N$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$O$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_nckh-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$O$101:$O$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$P$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_vtth-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$P$101:$P$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$Q$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_tsth-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$Q$101:$Q$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$R$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt_ncth-MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$R$101:$R$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="88180608"/>
+        <c:axId val="88182144"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="88180608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88182144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="88182144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88180608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$S$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TongSoLD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$S$101:$S$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="88217472"/>
+        <c:axId val="88219008"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$T$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TyLeVang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$T$101:$T$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="88226432"/>
+        <c:axId val="88224896"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="88217472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88219008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="88219008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88217472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88224896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88226432"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="88226432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88224896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$V$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NSTTMAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$V$101:$V$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$X$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NSTT_GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$X$101:$X$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="70616960"/>
+        <c:axId val="70618496"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$U$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NS_MAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$U$101:$U$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$W$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NS_GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$W$101:$W$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="88238720"/>
+        <c:axId val="88237184"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="70616960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70618496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="70618496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70616960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88237184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88238720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="88238720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88237184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kế hoạch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$B$110:$D$121</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>01/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>01/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>02/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>02/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>02/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>03/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>03/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>03/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>04/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>04/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>04/07/2017</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$110:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thực Hiện</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$B$110:$D$121</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>GO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Chat</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>01/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>01/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>01/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>02/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>02/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>02/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>03/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>03/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>03/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>04/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>04/07/2017</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>04/07/2017</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$110:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="88594304"/>
+        <c:axId val="88595840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88594304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88595840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88595840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88594304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4368,6 +7925,467 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86265</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327805</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422697</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328865</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396818</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>507171</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34508</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144860</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388188</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>498540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>51760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>310551</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112145</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350921</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501315</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>48127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46D9853-E116-403D-8F2E-6ACB4D070897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63564</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>24647</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>36774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>517585</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53831</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>141719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103517</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>163901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>77440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319177</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336431</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110911</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1025021</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>110112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>30447</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>113157</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4657,15 +8675,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+    <sheetView topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7886,6 +11904,9 @@
       <c r="C111" t="s">
         <v>44</v>
       </c>
+      <c r="H111" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="4">
@@ -7894,16 +11915,22 @@
       <c r="C112" t="s">
         <v>45</v>
       </c>
+      <c r="H112" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="4">
         <v>42918</v>
       </c>
       <c r="C113" t="s">
         <v>43</v>
       </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <v>42918</v>
       </c>
@@ -7911,7 +11938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <v>42918</v>
       </c>
@@ -7919,7 +11946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <v>42919</v>
       </c>
@@ -7927,7 +11954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="4">
         <v>42919</v>
       </c>
@@ -7935,7 +11962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="4">
         <v>42919</v>
       </c>
@@ -7943,7 +11970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="4">
         <v>42920</v>
       </c>
@@ -7951,7 +11978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="4">
         <v>42920</v>
       </c>
@@ -7959,7 +11986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="4">
         <v>42920</v>
       </c>
@@ -7976,13 +12003,3439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AO121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="14" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2">
+        <v>42908</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>213</v>
+      </c>
+      <c r="G1" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>250</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M1" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1">
+        <v>120</v>
+      </c>
+      <c r="V1" s="1">
+        <v>158</v>
+      </c>
+      <c r="W1" s="1">
+        <v>136</v>
+      </c>
+      <c r="X1" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>42907</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>213</v>
+      </c>
+      <c r="G2" s="1">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>250</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M2" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1">
+        <v>120</v>
+      </c>
+      <c r="V2" s="1">
+        <v>158</v>
+      </c>
+      <c r="W2" s="1">
+        <v>136</v>
+      </c>
+      <c r="X2" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <v>42906</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>213</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>250</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M3" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>120</v>
+      </c>
+      <c r="V3" s="1">
+        <v>158</v>
+      </c>
+      <c r="W3" s="1">
+        <v>136</v>
+      </c>
+      <c r="X3" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>42905</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>213</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>250</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M4" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>120</v>
+      </c>
+      <c r="V4" s="1">
+        <v>158</v>
+      </c>
+      <c r="W4" s="1">
+        <v>136</v>
+      </c>
+      <c r="X4" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <v>42904</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>213</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>250</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M5" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>120</v>
+      </c>
+      <c r="V5" s="1">
+        <v>158</v>
+      </c>
+      <c r="W5" s="1">
+        <v>136</v>
+      </c>
+      <c r="X5" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
+        <v>42903</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>213</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>250</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M6" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>120</v>
+      </c>
+      <c r="V6" s="1">
+        <v>158</v>
+      </c>
+      <c r="W6" s="1">
+        <v>136</v>
+      </c>
+      <c r="X6" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>42902</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>213</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>250</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M7" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>120</v>
+      </c>
+      <c r="V7" s="1">
+        <v>158</v>
+      </c>
+      <c r="W7" s="1">
+        <v>136</v>
+      </c>
+      <c r="X7" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2">
+        <v>42901</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>213</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>250</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M8" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>120</v>
+      </c>
+      <c r="V8" s="1">
+        <v>158</v>
+      </c>
+      <c r="W8" s="1">
+        <v>136</v>
+      </c>
+      <c r="X8" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2">
+        <v>42900</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>213</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>250</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M9" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>120</v>
+      </c>
+      <c r="V9" s="1">
+        <v>158</v>
+      </c>
+      <c r="W9" s="1">
+        <v>136</v>
+      </c>
+      <c r="X9" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2">
+        <v>42899</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>213</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>250</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M10" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1">
+        <v>120</v>
+      </c>
+      <c r="V10" s="1">
+        <v>158</v>
+      </c>
+      <c r="W10" s="1">
+        <v>136</v>
+      </c>
+      <c r="X10" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <v>42898</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>213</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>250</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M11" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>120</v>
+      </c>
+      <c r="V11" s="1">
+        <v>158</v>
+      </c>
+      <c r="W11" s="1">
+        <v>136</v>
+      </c>
+      <c r="X11" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
+        <v>42897</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>213</v>
+      </c>
+      <c r="G12" s="1">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>250</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M12" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1">
+        <v>120</v>
+      </c>
+      <c r="V12" s="1">
+        <v>158</v>
+      </c>
+      <c r="W12" s="1">
+        <v>136</v>
+      </c>
+      <c r="X12" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
+        <v>42896</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>213</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>250</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M13" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>120</v>
+      </c>
+      <c r="V13" s="1">
+        <v>158</v>
+      </c>
+      <c r="W13" s="1">
+        <v>136</v>
+      </c>
+      <c r="X13" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2">
+        <v>42895</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>213</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>250</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M14" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="1">
+        <v>120</v>
+      </c>
+      <c r="V14" s="1">
+        <v>158</v>
+      </c>
+      <c r="W14" s="1">
+        <v>136</v>
+      </c>
+      <c r="X14" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2">
+        <v>42894</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>213</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>250</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M15" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>120</v>
+      </c>
+      <c r="V15" s="1">
+        <v>158</v>
+      </c>
+      <c r="W15" s="1">
+        <v>136</v>
+      </c>
+      <c r="X15" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2">
+        <v>42893</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>213</v>
+      </c>
+      <c r="G16" s="1">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>250</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M16" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>120</v>
+      </c>
+      <c r="V16" s="1">
+        <v>158</v>
+      </c>
+      <c r="W16" s="1">
+        <v>136</v>
+      </c>
+      <c r="X16" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2">
+        <v>42892</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>213</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>250</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M17" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>120</v>
+      </c>
+      <c r="V17" s="1">
+        <v>158</v>
+      </c>
+      <c r="W17" s="1">
+        <v>136</v>
+      </c>
+      <c r="X17" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2">
+        <v>42891</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>213</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>250</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M18" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>120</v>
+      </c>
+      <c r="V18" s="1">
+        <v>158</v>
+      </c>
+      <c r="W18" s="1">
+        <v>136</v>
+      </c>
+      <c r="X18" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2">
+        <v>42890</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>213</v>
+      </c>
+      <c r="G19" s="1">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>250</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M19" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="1">
+        <v>120</v>
+      </c>
+      <c r="V19" s="1">
+        <v>158</v>
+      </c>
+      <c r="W19" s="1">
+        <v>136</v>
+      </c>
+      <c r="X19" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2">
+        <v>42889</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>213</v>
+      </c>
+      <c r="G20" s="1">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>250</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M20" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1">
+        <v>120</v>
+      </c>
+      <c r="V20" s="1">
+        <v>158</v>
+      </c>
+      <c r="W20" s="1">
+        <v>136</v>
+      </c>
+      <c r="X20" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
+        <v>42888</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>213</v>
+      </c>
+      <c r="G21" s="1">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>250</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M21" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1">
+        <v>120</v>
+      </c>
+      <c r="V21" s="1">
+        <v>158</v>
+      </c>
+      <c r="W21" s="1">
+        <v>136</v>
+      </c>
+      <c r="X21" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2">
+        <v>42887</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>213</v>
+      </c>
+      <c r="G22" s="1">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>250</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2405</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-95</v>
+      </c>
+      <c r="M22" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1">
+        <v>120</v>
+      </c>
+      <c r="V22" s="1">
+        <v>158</v>
+      </c>
+      <c r="W22" s="1">
+        <v>136</v>
+      </c>
+      <c r="X22" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>365</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>89</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>78</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>145</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>15000</v>
+      </c>
+      <c r="H31">
+        <v>14509</v>
+      </c>
+      <c r="I31">
+        <v>235</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>17000</v>
+      </c>
+      <c r="H32">
+        <v>17500</v>
+      </c>
+      <c r="I32">
+        <v>679</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>10.4</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="T51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U51">
+        <v>213</v>
+      </c>
+      <c r="V51">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>213</v>
+      </c>
+      <c r="G52">
+        <v>1234</v>
+      </c>
+      <c r="H52">
+        <v>1234</v>
+      </c>
+      <c r="T52" t="s">
+        <v>18</v>
+      </c>
+      <c r="U52">
+        <v>1234</v>
+      </c>
+      <c r="V52">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="53" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>123</v>
+      </c>
+      <c r="G53">
+        <v>1234</v>
+      </c>
+      <c r="H53">
+        <v>1231</v>
+      </c>
+      <c r="T53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53">
+        <v>1234</v>
+      </c>
+      <c r="V53">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="61" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="V61" s="5"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" t="s">
+        <v>28</v>
+      </c>
+      <c r="L100" t="s">
+        <v>29</v>
+      </c>
+      <c r="M100" t="s">
+        <v>30</v>
+      </c>
+      <c r="N100" t="s">
+        <v>31</v>
+      </c>
+      <c r="O100" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>34</v>
+      </c>
+      <c r="R100" t="s">
+        <v>35</v>
+      </c>
+      <c r="S100" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100" t="s">
+        <v>37</v>
+      </c>
+      <c r="U100" t="s">
+        <v>38</v>
+      </c>
+      <c r="V100" t="s">
+        <v>39</v>
+      </c>
+      <c r="W100" t="s">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101">
+        <v>13500</v>
+      </c>
+      <c r="E101">
+        <v>14564</v>
+      </c>
+      <c r="F101">
+        <v>15000</v>
+      </c>
+      <c r="G101">
+        <v>14789</v>
+      </c>
+      <c r="H101">
+        <v>12300</v>
+      </c>
+      <c r="I101">
+        <v>11896</v>
+      </c>
+      <c r="J101">
+        <v>15</v>
+      </c>
+      <c r="K101">
+        <v>25</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>35</v>
+      </c>
+      <c r="N101">
+        <v>15</v>
+      </c>
+      <c r="O101">
+        <v>50</v>
+      </c>
+      <c r="P101">
+        <v>32</v>
+      </c>
+      <c r="Q101">
+        <v>17</v>
+      </c>
+      <c r="R101">
+        <v>51</v>
+      </c>
+      <c r="S101">
+        <v>2355</v>
+      </c>
+      <c r="T101">
+        <v>11</v>
+      </c>
+      <c r="U101">
+        <v>25</v>
+      </c>
+      <c r="V101">
+        <v>689</v>
+      </c>
+      <c r="W101">
+        <v>10</v>
+      </c>
+      <c r="X101">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>13500</v>
+      </c>
+      <c r="E102">
+        <v>12589</v>
+      </c>
+      <c r="F102">
+        <v>15000</v>
+      </c>
+      <c r="G102">
+        <v>15698</v>
+      </c>
+      <c r="H102">
+        <v>12300</v>
+      </c>
+      <c r="I102">
+        <v>14563</v>
+      </c>
+      <c r="J102">
+        <v>17</v>
+      </c>
+      <c r="K102">
+        <v>23</v>
+      </c>
+      <c r="L102">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>35</v>
+      </c>
+      <c r="N102">
+        <v>15</v>
+      </c>
+      <c r="O102">
+        <v>50</v>
+      </c>
+      <c r="P102">
+        <v>33</v>
+      </c>
+      <c r="Q102">
+        <v>17</v>
+      </c>
+      <c r="R102">
+        <v>50</v>
+      </c>
+      <c r="S102">
+        <v>2450</v>
+      </c>
+      <c r="T102">
+        <v>12</v>
+      </c>
+      <c r="U102">
+        <v>24.2</v>
+      </c>
+      <c r="V102">
+        <v>658</v>
+      </c>
+      <c r="W102">
+        <v>11.5</v>
+      </c>
+      <c r="X102">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103">
+        <v>13500</v>
+      </c>
+      <c r="E103">
+        <v>11589</v>
+      </c>
+      <c r="F103">
+        <v>15000</v>
+      </c>
+      <c r="G103">
+        <v>14635</v>
+      </c>
+      <c r="H103">
+        <v>12300</v>
+      </c>
+      <c r="I103">
+        <v>13578</v>
+      </c>
+      <c r="J103">
+        <v>14</v>
+      </c>
+      <c r="K103">
+        <v>16</v>
+      </c>
+      <c r="L103">
+        <v>9</v>
+      </c>
+      <c r="M103">
+        <v>35</v>
+      </c>
+      <c r="N103">
+        <v>15</v>
+      </c>
+      <c r="O103">
+        <v>50</v>
+      </c>
+      <c r="P103">
+        <v>34</v>
+      </c>
+      <c r="Q103">
+        <v>13</v>
+      </c>
+      <c r="R103">
+        <v>53</v>
+      </c>
+      <c r="S103">
+        <v>2320</v>
+      </c>
+      <c r="T103">
+        <v>8</v>
+      </c>
+      <c r="U103">
+        <v>23</v>
+      </c>
+      <c r="V103">
+        <v>636</v>
+      </c>
+      <c r="W103">
+        <v>12.6</v>
+      </c>
+      <c r="X103">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104">
+        <v>13500</v>
+      </c>
+      <c r="E104">
+        <v>14578</v>
+      </c>
+      <c r="F104">
+        <v>15000</v>
+      </c>
+      <c r="G104">
+        <v>16589</v>
+      </c>
+      <c r="H104">
+        <v>12300</v>
+      </c>
+      <c r="I104">
+        <v>14523</v>
+      </c>
+      <c r="J104">
+        <v>25</v>
+      </c>
+      <c r="K104">
+        <v>15</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>35</v>
+      </c>
+      <c r="N104">
+        <v>15</v>
+      </c>
+      <c r="O104">
+        <v>50</v>
+      </c>
+      <c r="P104">
+        <v>30</v>
+      </c>
+      <c r="Q104">
+        <v>10</v>
+      </c>
+      <c r="R104">
+        <v>60</v>
+      </c>
+      <c r="S104">
+        <v>2189</v>
+      </c>
+      <c r="T104">
+        <v>21</v>
+      </c>
+      <c r="U104">
+        <v>26</v>
+      </c>
+      <c r="V104">
+        <v>718</v>
+      </c>
+      <c r="W104">
+        <v>10.6</v>
+      </c>
+      <c r="X104">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110">
+        <v>15000</v>
+      </c>
+      <c r="F110">
+        <v>14789</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111">
+        <v>13500</v>
+      </c>
+      <c r="F111">
+        <v>14564</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112">
+        <v>12300</v>
+      </c>
+      <c r="F112">
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113">
+        <v>15000</v>
+      </c>
+      <c r="F113">
+        <v>15698</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114">
+        <v>13500</v>
+      </c>
+      <c r="F114">
+        <v>12589</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115">
+        <v>12300</v>
+      </c>
+      <c r="F115">
+        <v>14563</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116">
+        <v>15000</v>
+      </c>
+      <c r="F116">
+        <v>14635</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117">
+        <v>13500</v>
+      </c>
+      <c r="F117">
+        <v>11589</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118">
+        <v>12300</v>
+      </c>
+      <c r="F118">
+        <v>13578</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119">
+        <v>15000</v>
+      </c>
+      <c r="F119">
+        <v>16589</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120">
+        <v>13500</v>
+      </c>
+      <c r="F120">
+        <v>14578</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>12300</v>
+      </c>
+      <c r="F121">
+        <v>14523</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7996,4 +15449,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>